--- a/Documentations/Tatooine.xlsx
+++ b/Documentations/Tatooine.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\Desktop\Tatooine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhasmina Mihaleva\Documents\Zhasmina Mihaleva\C++ projects\Tatooine\Documentations\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E33D61-9847-4EB1-B5F7-DAF840806B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Front-End" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="66">
   <si>
     <t>Test of functions</t>
   </si>
@@ -90,9 +91,6 @@
     <t>Zhasmina Mihaleva</t>
   </si>
   <si>
-    <t>drawLevelCompletionText();</t>
-  </si>
-  <si>
     <t>TEST 3</t>
   </si>
   <si>
@@ -159,28 +157,79 @@
     <t>TEST 7</t>
   </si>
   <si>
-    <t>Displays the level the player is currently on</t>
-  </si>
-  <si>
     <t>displayLevelOneElements();</t>
   </si>
   <si>
-    <t>Displays all game elements</t>
-  </si>
-  <si>
     <t>displayLevelOneContainers();</t>
   </si>
   <si>
-    <t>Displays all containers</t>
-  </si>
-  <si>
     <t>26.03.2023</t>
+  </si>
+  <si>
+    <t>TEST 8</t>
+  </si>
+  <si>
+    <t>checkMenuChange();</t>
+  </si>
+  <si>
+    <t>Checks if ENTER is pressed switching to game</t>
+  </si>
+  <si>
+    <t>drawLevelTwoCompletionText();</t>
+  </si>
+  <si>
+    <t>drawLevelOneCompletionText();</t>
+  </si>
+  <si>
+    <t>TEST 9</t>
+  </si>
+  <si>
+    <t>displayLevelTwoElements();</t>
+  </si>
+  <si>
+    <t>TEST 10</t>
+  </si>
+  <si>
+    <t>displayLevelTwoContainers();</t>
+  </si>
+  <si>
+    <t>Displays all containers in Level 2</t>
+  </si>
+  <si>
+    <t>Displays all game elements in Level 2</t>
+  </si>
+  <si>
+    <t>Displays all containers in Level 1</t>
+  </si>
+  <si>
+    <t>Displays all game elements in Level 1</t>
+  </si>
+  <si>
+    <t>TEST 11</t>
+  </si>
+  <si>
+    <t>displayLevelTwo();</t>
+  </si>
+  <si>
+    <t>Displays the level the player is currently on(Level 2)</t>
+  </si>
+  <si>
+    <t>Displays the level the player is currently on (Level 1)</t>
+  </si>
+  <si>
+    <t>TEST 12</t>
+  </si>
+  <si>
+    <t>checkLevelCompletion();</t>
+  </si>
+  <si>
+    <t>Checks if the current level is completed</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -682,7 +731,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -690,31 +739,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -726,88 +793,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -822,7 +811,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,10 +835,79 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Добър" xfId="1" builtinId="26"/>
-    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1126,596 +1184,684 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:N55"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+    <row r="1" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="C2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
+    <row r="3" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="5" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="8" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+    </row>
+    <row r="8" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="22" t="s">
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="19" t="s">
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="K10" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
+    <row r="11" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="23" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="24" t="s">
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B12" s="21"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="31" t="s">
+      <c r="G12" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
+      <c r="H12" s="38"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="22"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="15" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="2:14" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="22" t="s">
+      <c r="D17" s="53"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="19" t="s">
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="12" t="s">
+      <c r="K17" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="19" t="s">
+    <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="23" t="s">
+      <c r="D18" s="38"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="13"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="24" t="s">
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="21"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="21"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="22"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="21"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="22"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="29" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="18" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="2:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="22" t="s">
+      <c r="C31" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G24" s="40" t="s">
+      <c r="G31" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="21"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="38"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="19"/>
+    </row>
+    <row r="34" spans="2:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="22"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="36" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="19" t="s">
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K38" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
+    <row r="39" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="23" t="s">
+      <c r="C39" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="20"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="24" t="s">
+      <c r="G39" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="19"/>
+    </row>
+    <row r="40" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="21"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G40" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="13"/>
-    </row>
-    <row r="27" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="21"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="40" t="s">
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="19"/>
+    </row>
+    <row r="41" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="22"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="43" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="44" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="53"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="19"/>
+    </row>
+    <row r="47" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="21"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="19"/>
+    </row>
+    <row r="48" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="22"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="13"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="50" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="51" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="10"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17"/>
-    </row>
-    <row r="31" spans="2:11" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G31" s="40" t="s">
+      <c r="D53" s="24"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="32">
+        <v>45020</v>
+      </c>
+      <c r="H53" s="33"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="19"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B54" s="21"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="53"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="13"/>
-    </row>
-    <row r="33" spans="2:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="20"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="13"/>
-    </row>
-    <row r="34" spans="2:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="21"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="36" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
-    </row>
-    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="13"/>
-    </row>
-    <row r="40" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="20"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="13"/>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="21"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="43" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="17"/>
-    </row>
-    <row r="45" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="44"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="13"/>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="20"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="13"/>
-    </row>
-    <row r="48" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="21"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="14"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="19"/>
+    </row>
+    <row r="55" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="22"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="75">
     <mergeCell ref="C45:E45"/>
     <mergeCell ref="G45:I45"/>
     <mergeCell ref="J45:J48"/>
@@ -1781,6 +1927,16 @@
     <mergeCell ref="J10:J13"/>
     <mergeCell ref="K10:K13"/>
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="B53:B55"/>
+    <mergeCell ref="C53:E55"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:I55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1788,151 +1944,152 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="N69" sqref="N69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.26953125" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C2" s="6" t="s">
+    <row r="1" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C3" s="46"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="6" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="5"/>
-    </row>
-    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="51"/>
+    </row>
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="40" t="s">
+      <c r="H10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="23" t="s">
+      <c r="D11" s="24"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="G11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="13"/>
-    </row>
-    <row r="12" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="20"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="24" t="s">
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="21"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="41"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="40" t="s">
+      <c r="H12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="22"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="13"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1944,7 +2101,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1956,93 +2113,93 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="18" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="8"/>
+    </row>
+    <row r="17" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="40" t="s">
+      <c r="D18" s="24"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="33"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="19"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="21"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="53"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="13"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="32"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="21"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H19" s="38"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="19"/>
+    </row>
+    <row r="20" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="22"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2054,7 +2211,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2066,93 +2223,93 @@
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="24" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="18" t="s">
+    <row r="23" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="2:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G24" s="40" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="21"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H24" s="41"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="43" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="52" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="13"/>
-    </row>
-    <row r="26" spans="2:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="20"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="32"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="13"/>
-    </row>
-    <row r="27" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="21"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H26" s="38"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="19"/>
+    </row>
+    <row r="27" spans="2:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="22"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="20"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2164,7 +2321,7 @@
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2176,184 +2333,184 @@
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17"/>
-    </row>
-    <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="18" t="s">
+    <row r="30" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="8"/>
+    </row>
+    <row r="31" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="13"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K31" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="22" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="33"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="19"/>
+    </row>
+    <row r="33" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="21"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="13"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="19"/>
+    </row>
+    <row r="34" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="22"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="13"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="20"/>
+    </row>
+    <row r="36" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="8"/>
+    </row>
+    <row r="38" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G31" s="40" t="s">
+      <c r="G38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="19"/>
+    </row>
+    <row r="40" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="21"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="13"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="19"/>
+    </row>
+    <row r="41" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="22"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>49</v>
-      </c>
-      <c r="H32" s="53"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="13"/>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="20"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G33" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="13"/>
-    </row>
-    <row r="34" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="21"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="36" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="17"/>
-    </row>
-    <row r="38" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="H39" s="41"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="13"/>
-    </row>
-    <row r="40" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="20"/>
-      <c r="C40" s="46"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="41"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="13"/>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="21"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="50"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H41" s="41"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="27"/>
-      <c r="K41" s="14"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -2365,7 +2522,7 @@
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
-    <row r="43" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2377,95 +2534,95 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="17"/>
-    </row>
-    <row r="45" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="18" t="s">
+    <row r="44" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="8"/>
+    </row>
+    <row r="45" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B46" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="38"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G46" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="40" t="s">
+      <c r="H46" s="13"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="19"/>
+    </row>
+    <row r="47" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="21"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="41"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="32"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="13"/>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="20"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="41"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="13"/>
-    </row>
-    <row r="48" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="21"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="40" t="s">
+      <c r="H47" s="13"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="19"/>
+    </row>
+    <row r="48" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="22"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H48" s="41"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="27"/>
-      <c r="K48" s="14"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H48" s="13"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="20"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2477,7 +2634,7 @@
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2489,96 +2646,541 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="2:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="17"/>
-    </row>
-    <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="18" t="s">
+    <row r="51" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B51" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="8"/>
+    </row>
+    <row r="52" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="53"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="38"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="19"/>
+    </row>
+    <row r="54" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="21"/>
+      <c r="C54" s="55"/>
+      <c r="D54" s="56"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="19"/>
+    </row>
+    <row r="55" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="22"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="20"/>
+    </row>
+    <row r="57" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="58" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="8"/>
+    </row>
+    <row r="59" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="22" t="s">
+      <c r="D59" s="53"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="40" t="s">
+      <c r="G59" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="13"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" s="24"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G60" s="32">
+        <v>45020</v>
+      </c>
+      <c r="H60" s="13"/>
+      <c r="I60" s="14"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="19"/>
+    </row>
+    <row r="61" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="21"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="13"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="19"/>
+    </row>
+    <row r="62" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="22"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="31"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="41"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="19" t="s">
+      <c r="H62" s="13"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="20"/>
+    </row>
+    <row r="64" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="65" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="8"/>
+    </row>
+    <row r="66" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" s="13"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" s="13"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="12" t="s">
+      <c r="K66" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="19" t="s">
+    <row r="67" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="23" t="s">
+      <c r="C67" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D67" s="38"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G53" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="13"/>
-    </row>
-    <row r="54" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="20"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="24" t="s">
+      <c r="G67" s="32">
+        <v>45020</v>
+      </c>
+      <c r="H67" s="13"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="19"/>
+    </row>
+    <row r="68" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="21"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="56"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="40" t="s">
+      <c r="G68" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" s="13"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="19"/>
+    </row>
+    <row r="69" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="22"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="41"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="13"/>
-    </row>
-    <row r="55" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="21"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="40" t="s">
+      <c r="H69" s="13"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="20"/>
+    </row>
+    <row r="71" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="72" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B72" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="8"/>
+    </row>
+    <row r="73" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="D73" s="53"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H55" s="41"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="14"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K73" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B74" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="38"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" s="32">
+        <v>45020</v>
+      </c>
+      <c r="H74" s="13"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="19"/>
+    </row>
+    <row r="75" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B75" s="21"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="56"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="13"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="19"/>
+    </row>
+    <row r="76" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B76" s="22"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="42"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="13"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="20"/>
+    </row>
+    <row r="78" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="79" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B79" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="8"/>
+    </row>
+    <row r="80" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="53"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="13"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B81" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" s="32">
+        <v>45020</v>
+      </c>
+      <c r="H81" s="13"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="19"/>
+    </row>
+    <row r="82" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B82" s="21"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="13"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="19"/>
+    </row>
+    <row r="83" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B83" s="22"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="13"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="20"/>
+    </row>
+    <row r="85" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="86" spans="2:11" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B86" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="8"/>
+    </row>
+    <row r="87" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B87" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="D87" s="53"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="13"/>
+      <c r="I87" s="14"/>
+      <c r="J87" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="K87" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B88" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D88" s="24"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="32">
+        <v>45020</v>
+      </c>
+      <c r="H88" s="13"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="19"/>
+    </row>
+    <row r="89" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B89" s="21"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="13"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="19"/>
+    </row>
+    <row r="90" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B90" s="22"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="31"/>
+      <c r="F90" s="36"/>
+      <c r="G90" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="13"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="132">
     <mergeCell ref="G55:I55"/>
     <mergeCell ref="B51:K51"/>
     <mergeCell ref="C52:E52"/>
@@ -2590,7 +3192,6 @@
     <mergeCell ref="G53:I53"/>
     <mergeCell ref="F54:F55"/>
     <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G46:I46"/>
     <mergeCell ref="F47:F48"/>
     <mergeCell ref="G47:I47"/>
     <mergeCell ref="G48:I48"/>
@@ -2606,8 +3207,6 @@
     <mergeCell ref="K45:K48"/>
     <mergeCell ref="B46:B48"/>
     <mergeCell ref="C46:E48"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
     <mergeCell ref="B37:K37"/>
     <mergeCell ref="C38:E38"/>
     <mergeCell ref="G38:I38"/>
@@ -2616,6 +3215,7 @@
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="C39:E41"/>
     <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G46:I46"/>
     <mergeCell ref="B30:K30"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="G31:I31"/>
@@ -2625,6 +3225,8 @@
     <mergeCell ref="C32:E34"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
     <mergeCell ref="B23:K23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="G24:I24"/>
@@ -2656,6 +3258,61 @@
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B58:K58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="K59:K62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:E62"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="B65:K65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="J66:J69"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:E69"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="B72:K72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="J73:J76"/>
+    <mergeCell ref="K73:K76"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="C74:E76"/>
+    <mergeCell ref="G74:I74"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="B79:K79"/>
+    <mergeCell ref="C80:E80"/>
+    <mergeCell ref="G80:I80"/>
+    <mergeCell ref="J80:J83"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="C81:E83"/>
+    <mergeCell ref="G81:I81"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:I82"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="B86:K86"/>
+    <mergeCell ref="C87:E87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="J87:J90"/>
+    <mergeCell ref="K87:K90"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:E90"/>
+    <mergeCell ref="G88:I88"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="G90:I90"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
